--- a/core/common/commonConfig/enum/cGameEventType.xlsx
+++ b/core/common/commonConfig/enum/cGameEventType.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\shine\h2\develop\common\commonConfig\enum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dreamtown\develop\common\commonConfig\enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="14880"/>
+    <workbookView xWindow="4500" yWindow="465" windowWidth="28680" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="231">
   <si>
     <t>客户端游戏类型</t>
   </si>
@@ -210,12 +218,6 @@
     <t>主角单位CD(arg0:index)</t>
   </si>
   <si>
-    <t>mUnitBuffChange</t>
-  </si>
-  <si>
-    <t>主角单位buff组更新(add/remove/refresh)</t>
-  </si>
-  <si>
     <t>mUnitAvatarModelChange</t>
   </si>
   <si>
@@ -733,22 +735,71 @@
   </si>
   <si>
     <t>funcResetRank</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>排行插件数据重置(data:funcID)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mUnitBuffAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mUnitBuffRemove</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mUnitBuffRefresh</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角单位buff添加(arg0:index,arg1:instanceID)</t>
+    <rPh sb="8" eb="9">
+      <t>tian'jia</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角单位buff删除(arg0:index,arg1:instanceID)</t>
+    <rPh sb="8" eb="9">
+      <t>shan'chu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角单位buff刷新(arg0:index,arg1:instanceID)</t>
+    <rPh sb="8" eb="9">
+      <t>shua'xin</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>funcRefreshSubsectionRank</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分段排行插件数据更新(data:funcID)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -828,33 +879,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,13 +1214,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="44.625" style="1" customWidth="1"/>
@@ -1396,7 +1450,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <f t="shared" ref="A24:A36" si="1">ROW()-5</f>
+        <f t="shared" ref="A24:A38" si="1">ROW()-5</f>
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1471,11 +1525,11 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>50</v>
+      <c r="B30" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1483,11 +1537,11 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>52</v>
+      <c r="B31" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1495,11 +1549,11 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>54</v>
+      <c r="B32" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1508,10 +1562,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1520,10 +1574,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1532,10 +1586,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1544,51 +1598,51 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <f t="shared" ref="A40:A47" si="2">ROW()-5</f>
-        <v>35</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A42:A49" si="2">ROW()-5</f>
         <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1597,10 +1651,10 @@
         <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1609,10 +1663,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1621,10 +1675,10 @@
         <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1633,10 +1687,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1645,56 +1699,56 @@
         <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="7" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <f t="shared" ref="A52:A58" si="3">ROW()-5</f>
+        <v>47</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="B49" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <f t="shared" ref="A50:A56" si="3">ROW()-5</f>
-        <v>45</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="54" spans="1:3">
+      <c r="B54" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1703,10 +1757,10 @@
         <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1715,51 +1769,51 @@
         <v>51</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="B58" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1">
-      <c r="A59" s="1">
-        <f t="shared" ref="A59:A62" si="4">ROW()-5</f>
-        <v>54</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1">
-      <c r="A60" s="1">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1">
       <c r="A61" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A61:A65" si="4">ROW()-5</f>
         <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1">
@@ -1768,53 +1822,64 @@
         <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1">
+      <c r="A63" s="1">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1">
+      <c r="A64" s="1">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" customHeight="1">
+      <c r="A65" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1"/>
+    <row r="67" spans="1:3">
+      <c r="B67" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1"/>
-    <row r="64" spans="1:3" ht="15" customHeight="1"/>
-    <row r="65" spans="1:3">
-      <c r="B65" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1">
-      <c r="A66" s="1">
-        <f t="shared" ref="A66:A74" si="5">ROW()-5</f>
-        <v>61</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1">
-      <c r="A67" s="1">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1">
       <c r="A68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A68:A76" si="5">ROW()-5</f>
         <v>63</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1">
@@ -1823,10 +1888,10 @@
         <v>64</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1">
@@ -1835,10 +1900,10 @@
         <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1">
@@ -1847,10 +1912,10 @@
         <v>66</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1">
@@ -1859,10 +1924,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1">
@@ -1871,10 +1936,10 @@
         <v>68</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1">
@@ -1883,74 +1948,74 @@
         <v>69</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" customHeight="1">
+      <c r="A75" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" customHeight="1">
+      <c r="A76" s="1">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" customHeight="1"/>
+    <row r="78" spans="1:3" ht="15" customHeight="1">
+      <c r="B78" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="1" t="s">
+    </row>
+    <row r="79" spans="1:3" ht="15" customHeight="1">
+      <c r="A79" s="1">
+        <f>ROW()-5</f>
+        <v>74</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1"/>
-    <row r="76" spans="1:3" ht="15" customHeight="1">
-      <c r="B76" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1">
-      <c r="A77" s="1">
-        <f>ROW()-5</f>
-        <v>72</v>
-      </c>
-      <c r="B77" s="1" t="s">
+    <row r="81" spans="1:3" ht="15" customHeight="1">
+      <c r="B81" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="1" t="s">
+    </row>
+    <row r="82" spans="1:3" ht="15" customHeight="1">
+      <c r="A82" s="1">
+        <f t="shared" ref="A82:A90" si="6">ROW()-5</f>
+        <v>77</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1">
-      <c r="B79" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1">
-      <c r="A80" s="1">
-        <f t="shared" ref="A80:A88" si="6">ROW()-5</f>
-        <v>75</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="84" spans="1:3" ht="15" customHeight="1">
+      <c r="B84" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" customHeight="1">
-      <c r="B82" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <f t="shared" si="6"/>
-        <v>79</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1959,10 +2024,10 @@
         <v>80</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1971,10 +2036,10 @@
         <v>81</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1983,10 +2048,10 @@
         <v>82</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1995,51 +2060,51 @@
         <v>83</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="B90" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <f t="shared" ref="A91:A99" si="7">ROW()-5</f>
-        <v>86</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <f t="shared" si="7"/>
-        <v>87</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A93:A101" si="7">ROW()-5</f>
         <v>88</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2048,10 +2113,10 @@
         <v>89</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2060,10 +2125,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2072,10 +2137,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2084,10 +2149,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2096,10 +2161,10 @@
         <v>93</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2108,109 +2173,109 @@
         <v>94</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="B101" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <f t="shared" ref="A102:A104" si="8">ROW()-5</f>
-        <v>97</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
+        <f t="shared" ref="A104:A106" si="8">ROW()-5</f>
+        <v>99</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="B104" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C104" s="1" t="s">
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <f t="shared" ref="A110:A119" si="9">ROW()-5</f>
+        <v>105</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="B107" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <f t="shared" ref="A108:A117" si="9">ROW()-5</f>
-        <v>103</v>
-      </c>
-      <c r="B108" s="1" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <f t="shared" si="9"/>
-        <v>104</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="113" spans="1:4">
+      <c r="B113" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="B111" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <f t="shared" si="9"/>
-        <v>107</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1">
-        <f t="shared" si="9"/>
-        <v>108</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2219,10 +2284,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2231,10 +2296,10 @@
         <v>110</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2243,12 +2308,11 @@
         <v>111</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D116" s="8"/>
+        <v>172</v>
+      </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1">
@@ -2256,51 +2320,52 @@
         <v>112</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="B121" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="B119" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1">
-        <f t="shared" ref="A120:A136" si="10">ROW()-5</f>
-        <v>115</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1">
-        <f t="shared" si="10"/>
-        <v>116</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A122:A138" si="10">ROW()-5</f>
         <v>117</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2309,10 +2374,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2321,10 +2386,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2333,10 +2398,10 @@
         <v>120</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2345,10 +2410,10 @@
         <v>121</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2357,10 +2422,10 @@
         <v>122</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2369,10 +2434,10 @@
         <v>123</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2381,10 +2446,10 @@
         <v>124</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2393,10 +2458,10 @@
         <v>125</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2405,10 +2470,10 @@
         <v>126</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2417,10 +2482,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2429,10 +2494,10 @@
         <v>128</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2441,10 +2506,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2453,10 +2518,10 @@
         <v>130</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2465,39 +2530,39 @@
         <v>131</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <f t="shared" si="10"/>
+        <v>132</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <f t="shared" si="10"/>
+        <v>133</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="B141" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="B139" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <f>ROW()-5</f>
-        <v>135</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <f>ROW()-5</f>
-        <v>136</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2506,17 +2571,41 @@
         <v>137</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <f>ROW()-5</f>
+        <v>138</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <f>ROW()-5</f>
+        <v>139</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2526,9 +2615,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2540,9 +2629,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
